--- a/analysis/4.3/ori.xlsx
+++ b/analysis/4.3/ori.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/4.1.2/d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/4.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C697E-1048-2043-974B-481DD50D52B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EA6CC-929C-B24D-A567-792C615D2741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1884,16 +1884,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">

--- a/analysis/4.3/ori.xlsx
+++ b/analysis/4.3/ori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/4.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EA6CC-929C-B24D-A567-792C615D2741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8DAC3-7D61-4E45-A051-717EF13B3491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,7 +938,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C3" sqref="A1:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2881,6 +2881,7 @@
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/analysis/4.3/ori.xlsx
+++ b/analysis/4.3/ori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/4.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8DAC3-7D61-4E45-A051-717EF13B3491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7220F-D372-7244-A3A7-9A95ECF00B48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>delay = 0.01s</a:t>
+              <a:t>delay = 0.01 sec</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -193,45 +193,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw dir="10800000" sx="200000" sy="200000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="C00000"/>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw dir="10800000" sx="200000" sy="200000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="C00000"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4F0C-7E4F-BE7C-8F38AC4DEE10}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$70</c:f>
@@ -239,19 +200,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>40.1</c:v>
+                  <c:v>130.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.099999999999994</c:v>
+                  <c:v>120.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.1</c:v>
+                  <c:v>120.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>120.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.100000000000001</c:v>
+                  <c:v>110.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>120.1</c:v>
@@ -260,49 +221,49 @@
                   <c:v>110.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.1</c:v>
+                  <c:v>110.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100.1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>120.1</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>110.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>120.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>110.1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>110.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>110.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>90.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>100.1</c:v>
@@ -311,139 +272,139 @@
                   <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.1</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.1</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90.1</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90.1</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>80.099999999999994</c:v>
+                  <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60.1</c:v>
+                  <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.1</c:v>
+                  <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80.099999999999994</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>80.099999999999994</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.099999999999994</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>60.1</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60.1</c:v>
+                  <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>60.1</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>60.1</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50.1</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.1</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>50.1</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>50.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>50.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>40.1</c:v>
-                </c:pt>
                 <c:pt idx="58">
-                  <c:v>40.1</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.1</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>40.1</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>30.1</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30.1</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>30.1</c:v>
+                  <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>50.1</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>20.100000000000001</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,115 +419,115 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.1</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>6.1</c:v>
@@ -578,88 +539,88 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +628,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F0C-7E4F-BE7C-8F38AC4DEE10}"/>
+              <c16:uniqueId val="{00000000-7140-7F4B-9795-DD9769CE101F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -679,11 +640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1298062895"/>
-        <c:axId val="1433318271"/>
+        <c:axId val="2105065423"/>
+        <c:axId val="2105067103"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1298062895"/>
+        <c:axId val="2105065423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.1"/>
@@ -734,8 +695,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.978373035649025"/>
-              <c:y val="0.96863159856497216"/>
+              <c:x val="0.96343589276773933"/>
+              <c:y val="0.96343958729296753"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -804,13 +765,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433318271"/>
+        <c:crossAx val="2105067103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1433318271"/>
+        <c:axId val="2105067103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.1"/>
@@ -862,8 +823,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.5949367088607592E-3"/>
-              <c:y val="4.4265247169547592E-2"/>
+              <c:x val="1.0404624277456647E-2"/>
+              <c:y val="5.1591908770024411E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -932,13 +893,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298062895"/>
+        <c:crossAx val="2105065423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1549,22 +1510,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EA38E4-EC7D-2944-96CC-B9F25E6EF2C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A2DE71-3A2F-644D-B963-D14FDB151E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,16 +1845,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,72 +1873,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>40.1</v>
+        <v>130.1</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D2">
-        <v>161.32656000000026</v>
+        <v>187.64240000000018</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>80.099999999999994</v>
+        <v>120.1</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D3">
-        <v>161.69815111111089</v>
+        <v>187.70884999999942</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>130.1</v>
+        <v>120.1</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D4">
-        <v>161.86473600000033</v>
+        <v>188.28613333333288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>70.099999999999994</v>
+        <v>120.1</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D5">
-        <v>162.5486697674416</v>
+        <v>188.30400000000066</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20.100000000000001</v>
+        <v>110.1</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D6">
-        <v>181.78429999999958</v>
+        <v>192.01492000000204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,13 +1946,13 @@
         <v>120.1</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D7">
-        <v>182.84384000000009</v>
+        <v>192.15436000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1999,223 +1960,223 @@
         <v>110.1</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D8">
-        <v>182.97384000000122</v>
+        <v>192.39483999999985</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>120.1</v>
+        <v>110.1</v>
       </c>
       <c r="B9">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D9">
-        <v>183.07384000000121</v>
+        <v>192.49480000000096</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>100.1</v>
+        <v>40.1</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D10">
-        <v>183.1538400000012</v>
+        <v>192.58596190476246</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>120.1</v>
+        <v>100.1</v>
       </c>
       <c r="B11">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D11">
-        <v>183.19384000000122</v>
+        <v>193.4751599999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>110.1</v>
+        <v>90.1</v>
       </c>
       <c r="B12">
         <v>1.1000000000000001</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D12">
-        <v>183.23384000000121</v>
+        <v>194.09616000000261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>120.1</v>
+        <v>90.1</v>
       </c>
       <c r="B13">
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D13">
-        <v>183.25384000000122</v>
+        <v>194.22394000000079</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>110.1</v>
+        <v>90.1</v>
       </c>
       <c r="B14">
         <v>2.1</v>
       </c>
       <c r="C14">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D14">
-        <v>183.33989333333369</v>
+        <v>194.27608000000041</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>110.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B15">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D15">
-        <v>183.34292000000059</v>
+        <v>194.58440000000115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>110.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B16">
         <v>3.1</v>
       </c>
       <c r="C16">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D16">
-        <v>183.36656000000028</v>
+        <v>194.64444000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>110.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B17">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="C17">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D17">
-        <v>183.36792000000005</v>
+        <v>194.65696000000224</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>90.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B18">
-        <v>0.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D18">
-        <v>183.38384000000011</v>
+        <v>194.93776000000187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>100.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B19">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D19">
-        <v>183.39322666666752</v>
+        <v>195.23796000000067</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>100.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B20">
-        <v>5.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C20">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D20">
-        <v>183.4829200000006</v>
+        <v>195.45804000000288</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>100.1</v>
+        <v>110.1</v>
       </c>
       <c r="B21">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D21">
-        <v>183.4829200000006</v>
+        <v>197.333799999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>90.1</v>
+        <v>110.1</v>
       </c>
       <c r="B22">
-        <v>7.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D22">
-        <v>183.48792000000003</v>
+        <v>197.37751999999855</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>100.1</v>
+        <v>110.1</v>
       </c>
       <c r="B23">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="C23">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D23">
-        <v>183.48792000000003</v>
+        <v>197.42026666666578</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,13 +2184,13 @@
         <v>100.1</v>
       </c>
       <c r="B24">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C24">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D24">
-        <v>183.49292000000059</v>
+        <v>198.30800000000224</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2240,52 +2201,52 @@
         <v>3.1</v>
       </c>
       <c r="C25">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D25">
-        <v>183.51292000000061</v>
+        <v>198.34306666666217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>90.1</v>
+        <v>100.1</v>
       </c>
       <c r="B26">
-        <v>6.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C26">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D26">
-        <v>183.60292000000061</v>
+        <v>198.39056000000065</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>90.1</v>
+        <v>100.1</v>
       </c>
       <c r="B27">
-        <v>5.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="C27">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D27">
-        <v>183.61792000000037</v>
+        <v>198.49142222222372</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>90.1</v>
+        <v>100.1</v>
       </c>
       <c r="B28">
         <v>1.1000000000000001</v>
       </c>
       <c r="C28">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D28">
-        <v>183.65989333333368</v>
+        <v>198.50915555555486</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,27 +2254,27 @@
         <v>90.1</v>
       </c>
       <c r="B29">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D29">
-        <v>183.67322666666752</v>
+        <v>198.51727272727311</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>90.1</v>
+        <v>100.1</v>
       </c>
       <c r="B30">
         <v>2.1</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D30">
-        <v>183.68656000000027</v>
+        <v>198.52418181818274</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,69 +2282,69 @@
         <v>90.1</v>
       </c>
       <c r="B31">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="C31">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D31">
-        <v>183.69322666666753</v>
+        <v>198.67486153846264</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>80.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B32">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="C32">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D32">
-        <v>184.15568000000198</v>
+        <v>199.27040000000088</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>60.1</v>
+        <v>90.1</v>
       </c>
       <c r="B33">
         <v>0.1</v>
       </c>
       <c r="C33">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D33">
-        <v>184.16384000000008</v>
+        <v>199.37259999999969</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>50.1</v>
+        <v>90.1</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="C34">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D34">
-        <v>184.39568000000199</v>
+        <v>199.50109090909035</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B35">
-        <v>1.1000000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D35">
-        <v>184.40384000000009</v>
+        <v>200.32386666666599</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,41 +2352,41 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B36">
-        <v>5.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="C36">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D36">
-        <v>184.43989333333369</v>
+        <v>200.43651428571371</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B37">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="C37">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D37">
-        <v>184.48656000000025</v>
+        <v>200.53584000000052</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>80.099999999999994</v>
+        <v>60.1</v>
       </c>
       <c r="B38">
-        <v>2.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C38">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D38">
-        <v>184.51322666666752</v>
+        <v>200.71534999999952</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,27 +2394,27 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B39">
-        <v>3.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C39">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D39">
-        <v>184.52792000000005</v>
+        <v>209.52608888888884</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>70.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B40">
         <v>6.1</v>
       </c>
       <c r="C40">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D40">
-        <v>184.57292000000061</v>
+        <v>209.60024999999959</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2464,24 +2425,24 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C41">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D41">
-        <v>184.63322666666753</v>
+        <v>219.40005714285678</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>70.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B42">
         <v>1.1000000000000001</v>
       </c>
       <c r="C42">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D42">
-        <v>184.67322666666752</v>
+        <v>226.56491428571243</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,97 +2450,97 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B43">
-        <v>4.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="C43">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D43">
-        <v>184.69989333333368</v>
+        <v>228.60365714285794</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>70.099999999999994</v>
+        <v>50.1</v>
       </c>
       <c r="B44">
         <v>3.1</v>
       </c>
       <c r="C44">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D44">
-        <v>184.76656000000025</v>
+        <v>229.54925714285571</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>70.099999999999994</v>
+        <v>60.1</v>
       </c>
       <c r="B45">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="C45">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D45">
-        <v>184.78384000000008</v>
+        <v>231.51847999999791</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>60.1</v>
+        <v>50.1</v>
       </c>
       <c r="B46">
-        <v>6.1</v>
+        <v>0.1</v>
       </c>
       <c r="C46">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D46">
-        <v>184.8638400000001</v>
+        <v>231.56273333333291</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>60.1</v>
+        <v>40.1</v>
       </c>
       <c r="B47">
-        <v>5.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C47">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D47">
-        <v>185.15568000000198</v>
+        <v>236.81719999999984</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>30.1</v>
+        <v>40.1</v>
       </c>
       <c r="B48">
         <v>0.1</v>
       </c>
       <c r="C48">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D48">
-        <v>185.39568000000199</v>
+        <v>243.99872000000141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>60.1</v>
+        <v>30.1</v>
       </c>
       <c r="B49">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="C49">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D49">
-        <v>185.45322666666752</v>
+        <v>244.382760000003</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2590,52 +2551,52 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D50">
-        <v>185.63792000000038</v>
+        <v>247.11916000000235</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>60.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B51">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="C51">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D51">
-        <v>185.6429200000006</v>
+        <v>247.96416000000349</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>60.1</v>
+        <v>30.1</v>
       </c>
       <c r="B52">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C52">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D52">
-        <v>185.69292000000061</v>
+        <v>248.982480000002</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>50.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B53">
-        <v>5.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C53">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D53">
-        <v>185.7398933333337</v>
+        <v>252.30432000000343</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2643,111 +2604,111 @@
         <v>50.1</v>
       </c>
       <c r="B54">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C54">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D54">
-        <v>185.82656000000026</v>
+        <v>254.59506666666556</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>40.1</v>
+        <v>30.1</v>
       </c>
       <c r="B55">
-        <v>5.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="C55">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D55">
-        <v>186.03384000000122</v>
+        <v>265.6226000000031</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>50.1</v>
+        <v>30.1</v>
       </c>
       <c r="B56">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C56">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D56">
-        <v>186.05989333333369</v>
+        <v>270.90287999999958</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>50.1</v>
+        <v>60.1</v>
       </c>
       <c r="B57">
-        <v>1.1000000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="C57">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D57">
-        <v>186.18384000000009</v>
+        <v>274.3786000000004</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>50.1</v>
+        <v>60.1</v>
       </c>
       <c r="B58">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C58">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D58">
-        <v>186.23384000000121</v>
+        <v>274.57879999999921</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>40.1</v>
+        <v>50.1</v>
       </c>
       <c r="B59">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="C59">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D59">
-        <v>186.3238400000001</v>
+        <v>275.12019999999973</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>40.1</v>
+        <v>60.1</v>
       </c>
       <c r="B60">
         <v>3.1</v>
       </c>
       <c r="C60">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D60">
-        <v>186.49322666666751</v>
+        <v>275.49892000000028</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>30.1</v>
+        <v>60.1</v>
       </c>
       <c r="B61">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="C61">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D61">
-        <v>186.5538400000012</v>
+        <v>275.83904000000132</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,80 +2719,80 @@
         <v>2.1</v>
       </c>
       <c r="C62">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D62">
-        <v>186.7138400000012</v>
+        <v>276.54144000000025</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>40.1</v>
+        <v>50.1</v>
       </c>
       <c r="B63">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C63">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D63">
-        <v>187.075680000002</v>
+        <v>276.599960000002</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>20.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B64">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C64">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D64">
-        <v>187.27568000000198</v>
+        <v>276.60115999999925</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>30.1</v>
+        <v>50.1</v>
       </c>
       <c r="B65">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="C65">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D65">
-        <v>187.5798933333337</v>
+        <v>276.61971999999992</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>30.1</v>
+        <v>50.1</v>
       </c>
       <c r="B66">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C66">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D66">
-        <v>187.99347200000079</v>
+        <v>278.30032000000074</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>30.1</v>
+        <v>40.1</v>
       </c>
       <c r="B67">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C67">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D67">
-        <v>188.68656000000027</v>
+        <v>281.53546666666409</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,41 +2800,41 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B68">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C68">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D68">
-        <v>190.355680000002</v>
+        <v>298.18448000000336</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>50.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B69">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="C69">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D69">
-        <v>190.60983999999996</v>
+        <v>304.33213333333697</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B70">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C70">
-        <v>0.01</v>
+        <v>150.01</v>
       </c>
       <c r="D70">
-        <v>191.1438400000001</v>
+        <v>320.79119999998932</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2842,6 @@
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/analysis/4.3/ori.xlsx
+++ b/analysis/4.3/ori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/4.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7220F-D372-7244-A3A7-9A95ECF00B48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE8554-FB87-454B-BFD0-8371F6464675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>delay = 0.01 sec</a:t>
+              <a:t>low time delay</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -628,7 +628,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7140-7F4B-9795-DD9769CE101F}"/>
+              <c16:uniqueId val="{00000000-71F3-1B4B-9DE2-1A187411155A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,14 +640,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2105065423"/>
-        <c:axId val="2105067103"/>
+        <c:axId val="939773535"/>
+        <c:axId val="927061551"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2105065423"/>
+        <c:axId val="939773535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -665,69 +664,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>kp</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.96343589276773933"/>
-              <c:y val="0.96343958729296753"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -765,17 +701,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105067103"/>
+        <c:crossAx val="927061551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2105067103"/>
+        <c:axId val="927061551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.1"/>
-          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -793,69 +726,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ki</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.0404624277456647E-2"/>
-              <c:y val="5.1591908770024411E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -893,7 +763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105065423"/>
+        <c:crossAx val="939773535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1509,23 +1379,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A2DE71-3A2F-644D-B963-D14FDB151E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57B5F43-E0D6-974F-9DC3-67E9C8682186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,15 +1715,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B70"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1879,7 +1749,7 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
         <v>187.64240000000018</v>
@@ -1893,7 +1763,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C3">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
         <v>187.70884999999942</v>
@@ -1907,7 +1777,7 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>188.28613333333288</v>
@@ -1921,7 +1791,7 @@
         <v>2.1</v>
       </c>
       <c r="C5">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>188.30400000000066</v>
@@ -1935,7 +1805,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C6">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>192.01492000000204</v>
@@ -1949,7 +1819,7 @@
         <v>3.1</v>
       </c>
       <c r="C7">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>192.15436000000005</v>
@@ -1963,7 +1833,7 @@
         <v>2.1</v>
       </c>
       <c r="C8">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
         <v>192.39483999999985</v>
@@ -1977,7 +1847,7 @@
         <v>3.1</v>
       </c>
       <c r="C9">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
         <v>192.49480000000096</v>
@@ -1991,7 +1861,7 @@
         <v>3.1</v>
       </c>
       <c r="C10">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
         <v>192.58596190476246</v>
@@ -2005,7 +1875,7 @@
         <v>6.1</v>
       </c>
       <c r="C11">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
         <v>193.4751599999997</v>
@@ -2019,7 +1889,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>194.09616000000261</v>
@@ -2033,7 +1903,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C13">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
         <v>194.22394000000079</v>
@@ -2047,7 +1917,7 @@
         <v>2.1</v>
       </c>
       <c r="C14">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
         <v>194.27608000000041</v>
@@ -2061,7 +1931,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C15">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
         <v>194.58440000000115</v>
@@ -2075,7 +1945,7 @@
         <v>3.1</v>
       </c>
       <c r="C16">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D16">
         <v>194.64444000000003</v>
@@ -2089,7 +1959,7 @@
         <v>2.1</v>
       </c>
       <c r="C17">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D17">
         <v>194.65696000000224</v>
@@ -2103,7 +1973,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C18">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
         <v>194.93776000000187</v>
@@ -2117,7 +1987,7 @@
         <v>2.1</v>
       </c>
       <c r="C19">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D19">
         <v>195.23796000000067</v>
@@ -2131,7 +2001,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D20">
         <v>195.45804000000288</v>
@@ -2145,7 +2015,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C21">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
         <v>197.333799999999</v>
@@ -2159,7 +2029,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C22">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
         <v>197.37751999999855</v>
@@ -2173,7 +2043,7 @@
         <v>0.1</v>
       </c>
       <c r="C23">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D23">
         <v>197.42026666666578</v>
@@ -2187,7 +2057,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C24">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D24">
         <v>198.30800000000224</v>
@@ -2201,7 +2071,7 @@
         <v>3.1</v>
       </c>
       <c r="C25">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D25">
         <v>198.34306666666217</v>
@@ -2215,7 +2085,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C26">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D26">
         <v>198.39056000000065</v>
@@ -2229,7 +2099,7 @@
         <v>0.1</v>
       </c>
       <c r="C27">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D27">
         <v>198.49142222222372</v>
@@ -2243,7 +2113,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D28">
         <v>198.50915555555486</v>
@@ -2257,7 +2127,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C29">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D29">
         <v>198.51727272727311</v>
@@ -2271,7 +2141,7 @@
         <v>2.1</v>
       </c>
       <c r="C30">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D30">
         <v>198.52418181818274</v>
@@ -2285,7 +2155,7 @@
         <v>6.1</v>
       </c>
       <c r="C31">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
         <v>198.67486153846264</v>
@@ -2299,7 +2169,7 @@
         <v>7.1</v>
       </c>
       <c r="C32">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D32">
         <v>199.27040000000088</v>
@@ -2313,7 +2183,7 @@
         <v>0.1</v>
       </c>
       <c r="C33">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D33">
         <v>199.37259999999969</v>
@@ -2327,7 +2197,7 @@
         <v>3.1</v>
       </c>
       <c r="C34">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D34">
         <v>199.50109090909035</v>
@@ -2341,7 +2211,7 @@
         <v>6.1</v>
       </c>
       <c r="C35">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D35">
         <v>200.32386666666599</v>
@@ -2355,7 +2225,7 @@
         <v>0.1</v>
       </c>
       <c r="C36">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D36">
         <v>200.43651428571371</v>
@@ -2369,7 +2239,7 @@
         <v>3.1</v>
       </c>
       <c r="C37">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D37">
         <v>200.53584000000052</v>
@@ -2383,7 +2253,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C38">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D38">
         <v>200.71534999999952</v>
@@ -2397,7 +2267,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C39">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D39">
         <v>209.52608888888884</v>
@@ -2411,7 +2281,7 @@
         <v>6.1</v>
       </c>
       <c r="C40">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D40">
         <v>209.60024999999959</v>
@@ -2425,7 +2295,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C41">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D41">
         <v>219.40005714285678</v>
@@ -2439,7 +2309,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
         <v>226.56491428571243</v>
@@ -2453,7 +2323,7 @@
         <v>0.1</v>
       </c>
       <c r="C43">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D43">
         <v>228.60365714285794</v>
@@ -2467,7 +2337,7 @@
         <v>3.1</v>
       </c>
       <c r="C44">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D44">
         <v>229.54925714285571</v>
@@ -2481,7 +2351,7 @@
         <v>0.1</v>
       </c>
       <c r="C45">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D45">
         <v>231.51847999999791</v>
@@ -2495,7 +2365,7 @@
         <v>0.1</v>
       </c>
       <c r="C46">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D46">
         <v>231.56273333333291</v>
@@ -2509,7 +2379,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D47">
         <v>236.81719999999984</v>
@@ -2523,7 +2393,7 @@
         <v>0.1</v>
       </c>
       <c r="C48">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D48">
         <v>243.99872000000141</v>
@@ -2537,7 +2407,7 @@
         <v>2.1</v>
       </c>
       <c r="C49">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D49">
         <v>244.382760000003</v>
@@ -2551,7 +2421,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D50">
         <v>247.11916000000235</v>
@@ -2565,7 +2435,7 @@
         <v>2.1</v>
       </c>
       <c r="C51">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D51">
         <v>247.96416000000349</v>
@@ -2579,7 +2449,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C52">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D52">
         <v>248.982480000002</v>
@@ -2593,7 +2463,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D53">
         <v>252.30432000000343</v>
@@ -2607,7 +2477,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C54">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D54">
         <v>254.59506666666556</v>
@@ -2621,7 +2491,7 @@
         <v>3.1</v>
       </c>
       <c r="C55">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D55">
         <v>265.6226000000031</v>
@@ -2635,7 +2505,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D56">
         <v>270.90287999999958</v>
@@ -2649,7 +2519,7 @@
         <v>6.1</v>
       </c>
       <c r="C57">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D57">
         <v>274.3786000000004</v>
@@ -2663,7 +2533,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C58">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D58">
         <v>274.57879999999921</v>
@@ -2677,7 +2547,7 @@
         <v>2.1</v>
       </c>
       <c r="C59">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D59">
         <v>275.12019999999973</v>
@@ -2691,7 +2561,7 @@
         <v>3.1</v>
       </c>
       <c r="C60">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D60">
         <v>275.49892000000028</v>
@@ -2705,7 +2575,7 @@
         <v>2.1</v>
       </c>
       <c r="C61">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D61">
         <v>275.83904000000132</v>
@@ -2719,7 +2589,7 @@
         <v>2.1</v>
       </c>
       <c r="C62">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D62">
         <v>276.54144000000025</v>
@@ -2733,7 +2603,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C63">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D63">
         <v>276.599960000002</v>
@@ -2747,7 +2617,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C64">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D64">
         <v>276.60115999999925</v>
@@ -2761,7 +2631,7 @@
         <v>6.1</v>
       </c>
       <c r="C65">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D65">
         <v>276.61971999999992</v>
@@ -2775,7 +2645,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D66">
         <v>278.30032000000074</v>
@@ -2789,7 +2659,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C67">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D67">
         <v>281.53546666666409</v>
@@ -2803,7 +2673,7 @@
         <v>0.1</v>
       </c>
       <c r="C68">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D68">
         <v>298.18448000000336</v>
@@ -2817,7 +2687,7 @@
         <v>3.1</v>
       </c>
       <c r="C69">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D69">
         <v>304.33213333333697</v>
@@ -2831,7 +2701,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C70">
-        <v>150.01</v>
+        <v>0.01</v>
       </c>
       <c r="D70">
         <v>320.79119999998932</v>

--- a/analysis/4.3/ori.xlsx
+++ b/analysis/4.3/ori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/4.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE8554-FB87-454B-BFD0-8371F6464675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19596311-B45A-204F-B79A-D766FD7AA2B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,8 +127,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>low time delay</a:t>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>#4. Low Time Delay (Delay = 0.01s, kp = 0.1~140.1, ki = 0.1~10.1, Start time: 150s, End Time: 1000s, Settling Time: 900s)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -193,12 +195,36 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="73025">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-15FC-8C47-BEE9-EF867E736851}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:f>Sheet1!$A$2:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>130.1</c:v>
                 </c:pt>
@@ -404,6 +430,12 @@
                   <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -411,10 +443,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$70</c:f>
+              <c:f>Sheet1!$B$2:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -621,6 +653,12 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,7 +666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71F3-1B4B-9DE2-1A187411155A}"/>
+              <c16:uniqueId val="{00000000-15FC-8C47-BEE9-EF867E736851}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -640,13 +678,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="939773535"/>
-        <c:axId val="927061551"/>
+        <c:axId val="169656368"/>
+        <c:axId val="169658048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="939773535"/>
+        <c:axId val="169656368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -664,6 +703,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>kp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.97106689464646812"/>
+              <c:y val="0.96714943552272836"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -701,14 +803,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="927061551"/>
+        <c:crossAx val="169658048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="927061551"/>
+        <c:axId val="169658048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10.1"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -726,6 +831,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.2208390963577688E-3"/>
+              <c:y val="4.4420305323956868E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -763,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="939773535"/>
+        <c:crossAx val="169656368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1379,23 +1547,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57B5F43-E0D6-974F-9DC3-67E9C8682186}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C68BF9-C380-D342-A64D-99E7320A6429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,17 +1881,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2707,8 +2875,36 @@
         <v>320.79119999998932</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>30.1</v>
+      </c>
+      <c r="B71">
+        <v>0.1</v>
+      </c>
+      <c r="C71">
+        <v>0.01</v>
+      </c>
+      <c r="D71">
+        <v>387.12300000000067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>10.1</v>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+      <c r="C72">
+        <v>0.01</v>
+      </c>
+      <c r="D72">
+        <v>452.92600000000044</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
